--- a/biology/Botanique/Kallstroemia_grandiflora/Kallstroemia_grandiflora.xlsx
+++ b/biology/Botanique/Kallstroemia_grandiflora/Kallstroemia_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kallstroemia grandiflora est une espèce végétale de la famille des Zygophyllaceae, originaire du Mexique et du sud-ouest des États-Unis.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante rampante forme des tiges velues, ramifiées, pouvant mesurer 1 m de long. Seules les tiges florales sont capables de s'élever seules au-dessus du sol, jusqu'à 30 cm de hauteur. Les feuilles, opposées et paripennées, mesure globalement entre 2 et 6,5 cm, mais sont divisées en petits folioles[1]
-Appareil reproducteur
-La floraison a lieu entre mai et novembre.
-Les fleurs apparaissent au sommet d'une tige florale dressée jusqu'à 30 cm au-dessus du sol. Elles mesurent environ 6 cm de diamètre et sont constituées de cinq grands pétales orange à base rouge. Elles possèdent 10 étamines et un ovaire à cinq lobes[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante rampante forme des tiges velues, ramifiées, pouvant mesurer 1 m de long. Seules les tiges florales sont capables de s'élever seules au-dessus du sol, jusqu'à 30 cm de hauteur. Les feuilles, opposées et paripennées, mesure globalement entre 2 et 6,5 cm, mais sont divisées en petits folioles
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mai et novembre.
+Les fleurs apparaissent au sommet d'une tige florale dressée jusqu'à 30 cm au-dessus du sol. Elles mesurent environ 6 cm de diamètre et sont constituées de cinq grands pétales orange à base rouge. Elles possèdent 10 étamines et un ovaire à cinq lobes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kallstroemia_grandiflora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kallstroemia_grandiflora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vit dans les espaces dégagés sablonneux des déserts du Mexique et du sud des États-Unis. La limite nord de son aire de répartition s'étend du sud de l'Arizona à l'ouest du Texas.
 </t>
